--- a/excel/道具表_Item.xlsx
+++ b/excel/道具表_Item.xlsx
@@ -45,7 +45,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>String</t>
+    <t>string</t>
   </si>
   <si>
     <t>血瓶</t>
@@ -70,14 +70,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,48 +528,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,97 +582,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,21 +1028,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,11 +1052,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1073,11 +1066,11 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,11 +1080,11 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1101,11 +1094,11 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1115,7 +1108,7 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>20</v>
       </c>
     </row>

--- a/excel/道具表_Item.xlsx
+++ b/excel/道具表_Item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
@@ -30,6 +30,12 @@
     <t>叠加数量</t>
   </si>
   <si>
+    <t>测试string一维数组</t>
+  </si>
+  <si>
+    <t>测试string二维数组</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -42,22 +48,70 @@
     <t>statck</t>
   </si>
   <si>
+    <t>testStrOneArr</t>
+  </si>
+  <si>
+    <t>testStrTwoArr</t>
+  </si>
+  <si>
+    <t>testIntOneArr</t>
+  </si>
+  <si>
+    <t>testIntTwoArr</t>
+  </si>
+  <si>
+    <t>testLongOneArr</t>
+  </si>
+  <si>
+    <t>testLongTwoArr</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>string[][]</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>int[][]</t>
+  </si>
+  <si>
+    <t>long[]</t>
+  </si>
+  <si>
+    <t>long[][]</t>
+  </si>
+  <si>
     <t>血瓶</t>
   </si>
   <si>
     <t>喝了可以回血</t>
   </si>
   <si>
+    <t>10|12</t>
+  </si>
+  <si>
+    <t>10|11;12|123|123</t>
+  </si>
+  <si>
     <t>蓝瓶</t>
   </si>
   <si>
     <t>喝了可以回蓝</t>
+  </si>
+  <si>
+    <t>1010|123|123</t>
+  </si>
+  <si>
+    <t>343|123</t>
   </si>
 </sst>
 </file>
@@ -1028,21 +1082,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="11" width="19.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,61 +1111,148 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/excel/道具表_Item.xlsx
+++ b/excel/道具表_Item.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -66,16 +66,19 @@
     <t>testLongTwoArr</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>string[][]</t>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>String[][]</t>
   </si>
   <si>
     <t>int[]</t>
@@ -1085,7 +1088,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1173,25 +1176,25 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1199,31 +1202,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1231,28 +1234,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
